--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H2">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I2">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J2">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.014995666666667</v>
+        <v>0.827893</v>
       </c>
       <c r="N2">
-        <v>3.044987</v>
+        <v>2.483679</v>
       </c>
       <c r="O2">
-        <v>0.020110553700394</v>
+        <v>0.01537546367750153</v>
       </c>
       <c r="P2">
-        <v>0.02091936818044578</v>
+        <v>0.0155937213146199</v>
       </c>
       <c r="Q2">
-        <v>0.4556491480248889</v>
+        <v>0.05034472525866667</v>
       </c>
       <c r="R2">
-        <v>4.100842332224</v>
+        <v>0.453102527328</v>
       </c>
       <c r="S2">
-        <v>0.001730661009719979</v>
+        <v>0.0001889176283045259</v>
       </c>
       <c r="T2">
-        <v>0.001831784020969803</v>
+        <v>0.0001945784773673256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H3">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I3">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J3">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.908077</v>
       </c>
       <c r="O3">
-        <v>0.204131755664117</v>
+        <v>0.1913395472019212</v>
       </c>
       <c r="P3">
-        <v>0.2123416101653532</v>
+        <v>0.1940556485394501</v>
       </c>
       <c r="Q3">
-        <v>4.625057168433778</v>
+        <v>0.6265135892515555</v>
       </c>
       <c r="R3">
-        <v>41.62551451590399</v>
+        <v>5.638622303264</v>
       </c>
       <c r="S3">
-        <v>0.01756703846332442</v>
+        <v>0.002350980381238342</v>
       </c>
       <c r="T3">
-        <v>0.01859348547875714</v>
+        <v>0.002421426666252788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H4">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I4">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J4">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.94385766666667</v>
+        <v>20.67789833333333</v>
       </c>
       <c r="N4">
-        <v>41.83157300000001</v>
+        <v>62.03369499999999</v>
       </c>
       <c r="O4">
-        <v>0.2762757592030612</v>
+        <v>0.3840258037587418</v>
       </c>
       <c r="P4">
-        <v>0.2873871307674533</v>
+        <v>0.389477123229745</v>
       </c>
       <c r="Q4">
-        <v>6.259639400099556</v>
+        <v>1.257436782915555</v>
       </c>
       <c r="R4">
-        <v>56.33675460089601</v>
+        <v>11.31693104624</v>
       </c>
       <c r="S4">
-        <v>0.02377556041006251</v>
+        <v>0.004718507719542793</v>
       </c>
       <c r="T4">
-        <v>0.02516477311510094</v>
+        <v>0.004859896113213133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H5">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I5">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J5">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.854122</v>
+        <v>2.260929</v>
       </c>
       <c r="N5">
-        <v>11.708244</v>
+        <v>4.521858</v>
       </c>
       <c r="O5">
-        <v>0.1159902832258311</v>
+        <v>0.04198952245871127</v>
       </c>
       <c r="P5">
-        <v>0.08043681860792683</v>
+        <v>0.02839038115484509</v>
       </c>
       <c r="Q5">
-        <v>2.628016837248</v>
+        <v>0.137488599776</v>
       </c>
       <c r="R5">
-        <v>15.768101023488</v>
+        <v>0.8249315986560001</v>
       </c>
       <c r="S5">
-        <v>0.009981816695648233</v>
+        <v>0.0005159233674459421</v>
       </c>
       <c r="T5">
-        <v>0.007043371374923955</v>
+        <v>0.0003542552175668677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H6">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I6">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J6">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.355129</v>
+        <v>19.77566266666667</v>
       </c>
       <c r="N6">
-        <v>58.065387</v>
+        <v>59.326988</v>
       </c>
       <c r="O6">
-        <v>0.3834916482065965</v>
+        <v>0.3672696629031243</v>
       </c>
       <c r="P6">
-        <v>0.398915072278821</v>
+        <v>0.3724831257613399</v>
       </c>
       <c r="Q6">
-        <v>8.688852897002667</v>
+        <v>1.202571230535111</v>
       </c>
       <c r="R6">
-        <v>78.19967607302399</v>
+        <v>10.823141074816</v>
       </c>
       <c r="S6">
-        <v>0.03300227596873199</v>
+        <v>0.00451262577306128</v>
       </c>
       <c r="T6">
-        <v>0.03493060826795902</v>
+        <v>0.004647844987951181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.010684</v>
       </c>
       <c r="I7">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J7">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.014995666666667</v>
+        <v>0.827893</v>
       </c>
       <c r="N7">
-        <v>3.044987</v>
+        <v>2.483679</v>
       </c>
       <c r="O7">
-        <v>0.020110553700394</v>
+        <v>0.01537546367750153</v>
       </c>
       <c r="P7">
-        <v>0.02091936818044578</v>
+        <v>0.0155937213146199</v>
       </c>
       <c r="Q7">
-        <v>0.6802785156786666</v>
+        <v>0.554877069604</v>
       </c>
       <c r="R7">
-        <v>6.122506641107999</v>
+        <v>4.993893626436</v>
       </c>
       <c r="S7">
-        <v>0.002583855380699494</v>
+        <v>0.002082165697629019</v>
       </c>
       <c r="T7">
-        <v>0.002734830779846361</v>
+        <v>0.002144557046937181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.010684</v>
       </c>
       <c r="I8">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J8">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>30.908077</v>
       </c>
       <c r="O8">
-        <v>0.204131755664117</v>
+        <v>0.1913395472019212</v>
       </c>
       <c r="P8">
-        <v>0.2123416101653532</v>
+        <v>0.1940556485394501</v>
       </c>
       <c r="Q8">
         <v>6.905152877185333</v>
@@ -948,10 +948,10 @@
         <v>62.146375894668</v>
       </c>
       <c r="S8">
-        <v>0.02622737012129256</v>
+        <v>0.02591145542925492</v>
       </c>
       <c r="T8">
-        <v>0.02775984275974295</v>
+        <v>0.02668788290983939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.010684</v>
       </c>
       <c r="I9">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J9">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.94385766666667</v>
+        <v>20.67789833333333</v>
       </c>
       <c r="N9">
-        <v>41.83157300000001</v>
+        <v>62.03369499999999</v>
       </c>
       <c r="O9">
-        <v>0.2762757592030612</v>
+        <v>0.3840258037587418</v>
       </c>
       <c r="P9">
-        <v>0.2873871307674533</v>
+        <v>0.389477123229745</v>
       </c>
       <c r="Q9">
-        <v>9.345563836214666</v>
+        <v>13.85890644415333</v>
       </c>
       <c r="R9">
-        <v>84.11007452593201</v>
+        <v>124.73015799738</v>
       </c>
       <c r="S9">
-        <v>0.03549661623487184</v>
+        <v>0.0520052840267123</v>
       </c>
       <c r="T9">
-        <v>0.03757069353983778</v>
+        <v>0.05356360373454128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.010684</v>
       </c>
       <c r="I10">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J10">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.854122</v>
+        <v>2.260929</v>
       </c>
       <c r="N10">
-        <v>11.708244</v>
+        <v>4.521858</v>
       </c>
       <c r="O10">
-        <v>0.1159902832258311</v>
+        <v>0.04198952245871127</v>
       </c>
       <c r="P10">
-        <v>0.08043681860792683</v>
+        <v>0.02839038115484509</v>
       </c>
       <c r="Q10">
-        <v>3.923596479816</v>
+        <v>1.515337921812</v>
       </c>
       <c r="R10">
-        <v>23.541578878896</v>
+        <v>9.092027530871999</v>
       </c>
       <c r="S10">
-        <v>0.01490272828321233</v>
+        <v>0.005686276860143376</v>
       </c>
       <c r="T10">
-        <v>0.01051566593524093</v>
+        <v>0.00390444273964118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.010684</v>
       </c>
       <c r="I11">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J11">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.355129</v>
+        <v>19.77566266666667</v>
       </c>
       <c r="N11">
-        <v>58.065387</v>
+        <v>59.326988</v>
       </c>
       <c r="O11">
-        <v>0.3834916482065965</v>
+        <v>0.3672696629031243</v>
       </c>
       <c r="P11">
-        <v>0.398915072278821</v>
+        <v>0.3724831257613399</v>
       </c>
       <c r="Q11">
-        <v>12.972349399412</v>
+        <v>13.25420283775467</v>
       </c>
       <c r="R11">
-        <v>116.751144594708</v>
+        <v>119.287825539792</v>
       </c>
       <c r="S11">
-        <v>0.04927198790416789</v>
+        <v>0.04973614519317852</v>
       </c>
       <c r="T11">
-        <v>0.05215096406365307</v>
+        <v>0.05122647096865479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.117577333333334</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H12">
-        <v>6.352732</v>
+        <v>6.678254</v>
       </c>
       <c r="I12">
-        <v>0.4059391019012432</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J12">
-        <v>0.4130461779490746</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.014995666666667</v>
+        <v>0.827893</v>
       </c>
       <c r="N12">
-        <v>3.044987</v>
+        <v>2.483679</v>
       </c>
       <c r="O12">
-        <v>0.020110553700394</v>
+        <v>0.01537546367750153</v>
       </c>
       <c r="P12">
-        <v>0.02091936818044578</v>
+        <v>0.0155937213146199</v>
       </c>
       <c r="Q12">
-        <v>2.149331817164889</v>
+        <v>1.842959912940666</v>
       </c>
       <c r="R12">
-        <v>19.343986354484</v>
+        <v>16.586639216466</v>
       </c>
       <c r="S12">
-        <v>0.008163660107874664</v>
+        <v>0.006915672178648554</v>
       </c>
       <c r="T12">
-        <v>0.008640665072042617</v>
+        <v>0.007122897818322728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.117577333333334</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H13">
-        <v>6.352732</v>
+        <v>6.678254</v>
       </c>
       <c r="I13">
-        <v>0.4059391019012432</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J13">
-        <v>0.4130461779490746</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>30.908077</v>
       </c>
       <c r="O13">
-        <v>0.204131755664117</v>
+        <v>0.1913395472019212</v>
       </c>
       <c r="P13">
-        <v>0.2123416101653532</v>
+        <v>0.1940556485394501</v>
       </c>
       <c r="Q13">
-        <v>21.81674775737378</v>
+        <v>22.93466542861755</v>
       </c>
       <c r="R13">
-        <v>196.350729816364</v>
+        <v>206.411988857558</v>
       </c>
       <c r="S13">
-        <v>0.08286506156381568</v>
+        <v>0.08606189777520655</v>
       </c>
       <c r="T13">
-        <v>0.08770689049835148</v>
+        <v>0.08864071171510121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.117577333333334</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H14">
-        <v>6.352732</v>
+        <v>6.678254</v>
       </c>
       <c r="I14">
-        <v>0.4059391019012432</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J14">
-        <v>0.4130461779490746</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.94385766666667</v>
+        <v>20.67789833333333</v>
       </c>
       <c r="N14">
-        <v>41.83157300000001</v>
+        <v>62.03369499999999</v>
       </c>
       <c r="O14">
-        <v>0.2762757592030612</v>
+        <v>0.3840258037587418</v>
       </c>
       <c r="P14">
-        <v>0.2873871307674533</v>
+        <v>0.389477123229745</v>
       </c>
       <c r="Q14">
-        <v>29.52719693415956</v>
+        <v>46.03075241872555</v>
       </c>
       <c r="R14">
-        <v>265.7447724074361</v>
+        <v>414.27677176853</v>
       </c>
       <c r="S14">
-        <v>0.1121511335679748</v>
+        <v>0.172729526903545</v>
       </c>
       <c r="T14">
-        <v>0.1187041559552475</v>
+        <v>0.1779053053063611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.117577333333334</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H15">
-        <v>6.352732</v>
+        <v>6.678254</v>
       </c>
       <c r="I15">
-        <v>0.4059391019012432</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J15">
-        <v>0.4130461779490746</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.854122</v>
+        <v>2.260929</v>
       </c>
       <c r="N15">
-        <v>11.708244</v>
+        <v>4.521858</v>
       </c>
       <c r="O15">
-        <v>0.1159902832258311</v>
+        <v>0.04198952245871127</v>
       </c>
       <c r="P15">
-        <v>0.08043681860792683</v>
+        <v>0.02839038115484509</v>
       </c>
       <c r="Q15">
-        <v>12.396556053768</v>
+        <v>5.033019379322</v>
       </c>
       <c r="R15">
-        <v>74.37933632260801</v>
+        <v>30.198116275932</v>
       </c>
       <c r="S15">
-        <v>0.04708499140196472</v>
+        <v>0.01888630992555764</v>
       </c>
       <c r="T15">
-        <v>0.03322412049238718</v>
+        <v>0.01296815429166377</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.117577333333334</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H16">
-        <v>6.352732</v>
+        <v>6.678254</v>
       </c>
       <c r="I16">
-        <v>0.4059391019012432</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J16">
-        <v>0.4130461779490746</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.355129</v>
+        <v>19.77566266666667</v>
       </c>
       <c r="N16">
-        <v>58.065387</v>
+        <v>59.326988</v>
       </c>
       <c r="O16">
-        <v>0.3834916482065965</v>
+        <v>0.3672696629031243</v>
       </c>
       <c r="P16">
-        <v>0.398915072278821</v>
+        <v>0.3724831257613399</v>
       </c>
       <c r="Q16">
-        <v>40.98598245414268</v>
+        <v>44.0222994354391</v>
       </c>
       <c r="R16">
-        <v>368.8738420872841</v>
+        <v>396.200694918952</v>
       </c>
       <c r="S16">
-        <v>0.1556742552596133</v>
+        <v>0.165192845111875</v>
       </c>
       <c r="T16">
-        <v>0.1647703459310458</v>
+        <v>0.1701427895444051</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.2692725</v>
+        <v>0.227327</v>
       </c>
       <c r="H17">
-        <v>0.5385449999999999</v>
+        <v>0.454654</v>
       </c>
       <c r="I17">
-        <v>0.05161947811588895</v>
+        <v>0.04593201723886062</v>
       </c>
       <c r="J17">
-        <v>0.03501547899448369</v>
+        <v>0.03109746797088157</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.014995666666667</v>
+        <v>0.827893</v>
       </c>
       <c r="N17">
-        <v>3.044987</v>
+        <v>2.483679</v>
       </c>
       <c r="O17">
-        <v>0.020110553700394</v>
+        <v>0.01537546367750153</v>
       </c>
       <c r="P17">
-        <v>0.02091936818044578</v>
+        <v>0.0155937213146199</v>
       </c>
       <c r="Q17">
-        <v>0.2733104206524999</v>
+        <v>0.188202432011</v>
       </c>
       <c r="R17">
-        <v>1.639862523915</v>
+        <v>1.129214592066</v>
       </c>
       <c r="S17">
-        <v>0.001038096286635898</v>
+        <v>0.0007062260626904755</v>
       </c>
       <c r="T17">
-        <v>0.0007325016971002697</v>
+        <v>0.0004849252491282455</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.2692725</v>
+        <v>0.227327</v>
       </c>
       <c r="H18">
-        <v>0.5385449999999999</v>
+        <v>0.454654</v>
       </c>
       <c r="I18">
-        <v>0.05161947811588895</v>
+        <v>0.04593201723886062</v>
       </c>
       <c r="J18">
-        <v>0.03501547899448369</v>
+        <v>0.03109746797088157</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>30.908077</v>
       </c>
       <c r="O18">
-        <v>0.204131755664117</v>
+        <v>0.1913395472019212</v>
       </c>
       <c r="P18">
-        <v>0.2123416101653532</v>
+        <v>0.1940556485394501</v>
       </c>
       <c r="Q18">
-        <v>2.774231721327499</v>
+        <v>2.342080140059667</v>
       </c>
       <c r="R18">
-        <v>16.645390327965</v>
+        <v>14.052480840358</v>
       </c>
       <c r="S18">
-        <v>0.01053717469426188</v>
+        <v>0.00878861138055443</v>
       </c>
       <c r="T18">
-        <v>0.007435243190399767</v>
+        <v>0.006034639315024201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.2692725</v>
+        <v>0.227327</v>
       </c>
       <c r="H19">
-        <v>0.5385449999999999</v>
+        <v>0.454654</v>
       </c>
       <c r="I19">
-        <v>0.05161947811588895</v>
+        <v>0.04593201723886062</v>
       </c>
       <c r="J19">
-        <v>0.03501547899448369</v>
+        <v>0.03109746797088157</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.94385766666667</v>
+        <v>20.67789833333333</v>
       </c>
       <c r="N19">
-        <v>41.83157300000001</v>
+        <v>62.03369499999999</v>
       </c>
       <c r="O19">
-        <v>0.2762757592030612</v>
+        <v>0.3840258037587418</v>
       </c>
       <c r="P19">
-        <v>0.2873871307674533</v>
+        <v>0.389477123229745</v>
       </c>
       <c r="Q19">
-        <v>3.7546974135475</v>
+        <v>4.700644594421666</v>
       </c>
       <c r="R19">
-        <v>22.528184481285</v>
+        <v>28.20386756653</v>
       </c>
       <c r="S19">
-        <v>0.01426121050613303</v>
+        <v>0.01763907983841383</v>
       </c>
       <c r="T19">
-        <v>0.0100629980406727</v>
+        <v>0.01211175236502809</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.2692725</v>
+        <v>0.227327</v>
       </c>
       <c r="H20">
-        <v>0.5385449999999999</v>
+        <v>0.454654</v>
       </c>
       <c r="I20">
-        <v>0.05161947811588895</v>
+        <v>0.04593201723886062</v>
       </c>
       <c r="J20">
-        <v>0.03501547899448369</v>
+        <v>0.03109746797088157</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.854122</v>
+        <v>2.260929</v>
       </c>
       <c r="N20">
-        <v>11.708244</v>
+        <v>4.521858</v>
       </c>
       <c r="O20">
-        <v>0.1159902832258311</v>
+        <v>0.04198952245871127</v>
       </c>
       <c r="P20">
-        <v>0.08043681860792683</v>
+        <v>0.02839038115484509</v>
       </c>
       <c r="Q20">
-        <v>1.576354066245</v>
+        <v>0.513970206783</v>
       </c>
       <c r="R20">
-        <v>6.30541626498</v>
+        <v>2.055880827132</v>
       </c>
       <c r="S20">
-        <v>0.005987357886631551</v>
+        <v>0.001928663469425052</v>
       </c>
       <c r="T20">
-        <v>0.002816533732348956</v>
+        <v>0.0008828689686439148</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.2692725</v>
+        <v>0.227327</v>
       </c>
       <c r="H21">
-        <v>0.5385449999999999</v>
+        <v>0.454654</v>
       </c>
       <c r="I21">
-        <v>0.05161947811588895</v>
+        <v>0.04593201723886062</v>
       </c>
       <c r="J21">
-        <v>0.03501547899448369</v>
+        <v>0.03109746797088157</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.355129</v>
+        <v>19.77566266666667</v>
       </c>
       <c r="N21">
-        <v>58.065387</v>
+        <v>59.326988</v>
       </c>
       <c r="O21">
-        <v>0.3834916482065965</v>
+        <v>0.3672696629031243</v>
       </c>
       <c r="P21">
-        <v>0.398915072278821</v>
+        <v>0.3724831257613399</v>
       </c>
       <c r="Q21">
-        <v>5.2118039736525</v>
+        <v>4.495542067025333</v>
       </c>
       <c r="R21">
-        <v>31.270823841915</v>
+        <v>26.973252402152</v>
       </c>
       <c r="S21">
-        <v>0.0197956387422266</v>
+        <v>0.01686943648777684</v>
       </c>
       <c r="T21">
-        <v>0.013968202333962</v>
+        <v>0.01158328207305712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.710495</v>
+        <v>1.764755333333333</v>
       </c>
       <c r="H22">
-        <v>5.131485000000001</v>
+        <v>5.294266</v>
       </c>
       <c r="I22">
-        <v>0.3279015095111364</v>
+        <v>0.3565734487897958</v>
       </c>
       <c r="J22">
-        <v>0.3336423237204099</v>
+        <v>0.3621177144912995</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.014995666666667</v>
+        <v>0.827893</v>
       </c>
       <c r="N22">
-        <v>3.044987</v>
+        <v>2.483679</v>
       </c>
       <c r="O22">
-        <v>0.020110553700394</v>
+        <v>0.01537546367750153</v>
       </c>
       <c r="P22">
-        <v>0.02091936818044578</v>
+        <v>0.0155937213146199</v>
       </c>
       <c r="Q22">
-        <v>1.736145012855</v>
+        <v>1.461028587179333</v>
       </c>
       <c r="R22">
-        <v>15.625305115695</v>
+        <v>13.149257284614</v>
       </c>
       <c r="S22">
-        <v>0.006594280915463963</v>
+        <v>0.005482482110228956</v>
       </c>
       <c r="T22">
-        <v>0.006979586610486734</v>
+        <v>0.005646762722864419</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.710495</v>
+        <v>1.764755333333333</v>
       </c>
       <c r="H23">
-        <v>5.131485000000001</v>
+        <v>5.294266</v>
       </c>
       <c r="I23">
-        <v>0.3279015095111364</v>
+        <v>0.3565734487897958</v>
       </c>
       <c r="J23">
-        <v>0.3336423237204099</v>
+        <v>0.3621177144912995</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>30.908077</v>
       </c>
       <c r="O23">
-        <v>0.204131755664117</v>
+        <v>0.1913395472019212</v>
       </c>
       <c r="P23">
-        <v>0.2123416101653532</v>
+        <v>0.1940556485394501</v>
       </c>
       <c r="Q23">
-        <v>17.622703722705</v>
+        <v>18.18173124294244</v>
       </c>
       <c r="R23">
-        <v>158.604333504345</v>
+        <v>163.635581186482</v>
       </c>
       <c r="S23">
-        <v>0.06693511082142245</v>
+        <v>0.06822660223566696</v>
       </c>
       <c r="T23">
-        <v>0.07084614823810183</v>
+        <v>0.07027098793323257</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.710495</v>
+        <v>1.764755333333333</v>
       </c>
       <c r="H24">
-        <v>5.131485000000001</v>
+        <v>5.294266</v>
       </c>
       <c r="I24">
-        <v>0.3279015095111364</v>
+        <v>0.3565734487897958</v>
       </c>
       <c r="J24">
-        <v>0.3336423237204099</v>
+        <v>0.3621177144912995</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.94385766666667</v>
+        <v>20.67789833333333</v>
       </c>
       <c r="N24">
-        <v>41.83157300000001</v>
+        <v>62.03369499999999</v>
       </c>
       <c r="O24">
-        <v>0.2762757592030612</v>
+        <v>0.3840258037587418</v>
       </c>
       <c r="P24">
-        <v>0.2873871307674533</v>
+        <v>0.389477123229745</v>
       </c>
       <c r="Q24">
-        <v>23.85089881954501</v>
+        <v>36.49143136587444</v>
       </c>
       <c r="R24">
-        <v>214.6580893759051</v>
+        <v>328.42288229287</v>
       </c>
       <c r="S24">
-        <v>0.09059123848401902</v>
+        <v>0.1369334052705279</v>
       </c>
       <c r="T24">
-        <v>0.09588451011659441</v>
+        <v>0.1410365657106015</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.710495</v>
+        <v>1.764755333333333</v>
       </c>
       <c r="H25">
-        <v>5.131485000000001</v>
+        <v>5.294266</v>
       </c>
       <c r="I25">
-        <v>0.3279015095111364</v>
+        <v>0.3565734487897958</v>
       </c>
       <c r="J25">
-        <v>0.3336423237204099</v>
+        <v>0.3621177144912995</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.854122</v>
+        <v>2.260929</v>
       </c>
       <c r="N25">
-        <v>11.708244</v>
+        <v>4.521858</v>
       </c>
       <c r="O25">
-        <v>0.1159902832258311</v>
+        <v>0.04198952245871127</v>
       </c>
       <c r="P25">
-        <v>0.08043681860792683</v>
+        <v>0.02839038115484509</v>
       </c>
       <c r="Q25">
-        <v>10.01344641039</v>
+        <v>3.989986511038</v>
       </c>
       <c r="R25">
-        <v>60.08067846234001</v>
+        <v>23.939919066228</v>
       </c>
       <c r="S25">
-        <v>0.03803338895837427</v>
+        <v>0.01497234883613926</v>
       </c>
       <c r="T25">
-        <v>0.02683712707302581</v>
+        <v>0.01028065993732936</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.710495</v>
+        <v>1.764755333333333</v>
       </c>
       <c r="H26">
-        <v>5.131485000000001</v>
+        <v>5.294266</v>
       </c>
       <c r="I26">
-        <v>0.3279015095111364</v>
+        <v>0.3565734487897958</v>
       </c>
       <c r="J26">
-        <v>0.3336423237204099</v>
+        <v>0.3621177144912995</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.355129</v>
+        <v>19.77566266666667</v>
       </c>
       <c r="N26">
-        <v>58.065387</v>
+        <v>59.326988</v>
       </c>
       <c r="O26">
-        <v>0.3834916482065965</v>
+        <v>0.3672696629031243</v>
       </c>
       <c r="P26">
-        <v>0.398915072278821</v>
+        <v>0.3724831257613399</v>
       </c>
       <c r="Q26">
-        <v>33.106851378855</v>
+        <v>34.89920616120089</v>
       </c>
       <c r="R26">
-        <v>297.961662409695</v>
+        <v>314.092855450808</v>
       </c>
       <c r="S26">
-        <v>0.1257474903318567</v>
+        <v>0.1309586103372328</v>
       </c>
       <c r="T26">
-        <v>0.1330949516822011</v>
+        <v>0.1348827381872717</v>
       </c>
     </row>
   </sheetData>
